--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -1,39 +1,550 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QA Engineering\Manual Testing Practice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8230792-5D80-41D2-B155-58B3EA4B4C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="60">
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester's Name </t>
+  </si>
+  <si>
+    <t>Date Tested</t>
+  </si>
+  <si>
+    <t>Test Case (Pass/Fail/Not Executed)</t>
+  </si>
+  <si>
+    <t>Test Case Id</t>
+  </si>
+  <si>
+    <t>Test  Scenario</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Prerequsites</t>
+  </si>
+  <si>
+    <t>Steps/Actions</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Customer/Agent  can payment to merchant &amp; service fee is 1% deducted</t>
+  </si>
+  <si>
+    <t>Agent/Customer have to be logged in</t>
+  </si>
+  <si>
+    <t>1. The user goes to payment page.
+2. Insert valid merchant a/c
+3. Insert amount (greater than 500 tk &amp; less than user balance)
+4. Tap payment Button
+5. Show amount you want to payment, current balance &amp; want another confirmation 
+6. Tap confirm 
+7. Check current balance &amp; service fee deducted (1%) &amp; statement</t>
+  </si>
+  <si>
+    <t>Payment Successful &amp; show current balance, fee, Trnx ID</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Customer/Agent  can payment to merchant &amp; check minimum service fee deducted</t>
+  </si>
+  <si>
+    <t>1. The user goes to payment page.
+2. Insert valid merchant a/c
+3. Insert amount(less than 500 tk &amp; user balance)
+4. Tap payment Button
+5. Show amount you want to payment, current balance &amp; want another confirmation 
+6. Tap confirm 
+7. Check current balance &amp; service fee deducted (5tk) &amp;  &amp; statement</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer A/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:  01686606902
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 50</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Agent  can not payment to merchant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The user goes to payment page.
+2. Insert valid merchant a/c
+3. Insert amount
+4. Tap payment Button
+5. Show amount you want to payment, current balance &amp; want another confirmation 
+6. Tap cancel
+</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer A/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">:  01686606902
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 5000</t>
+    </r>
+  </si>
+  <si>
+    <t>Payment canceled</t>
+  </si>
+  <si>
+    <t>Customer/Agent can not payment to invalid merchant account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The user goes to payment page.
+2. Insert invalid merchant a/c
+3. Insert amount 
+4. Tap payment Button
+5. Show amount you want to payment, current balance &amp; want another confirmation 
+6. Tap confirm </t>
+  </si>
+  <si>
+    <r>
+      <t>Customer A/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 123
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1000</t>
+    </r>
+  </si>
+  <si>
+    <t>System will show an error message like "Account does not exist"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer/Agent can not payment to another agent/customer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The user goes to payment page.
+2. Insert customer or agent a/c
+3. Insert amount
+4. Tap payment Button
+5. Show amount you want to payment, current balance &amp; want another confirmation 
+6. Tap confirm </t>
+  </si>
+  <si>
+    <r>
+      <t>Customer A/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 12345678904
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 1000</t>
+    </r>
+  </si>
+  <si>
+    <t>System will show an error message like "From A/C should be customer or agent and To A/C should be merchant type"</t>
+  </si>
+  <si>
+    <t>Customer/Agent can payment to merchant because of minimum amount of payment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The user goes to payment page.
+2. Insert valid merchant a/c
+3. Insert invalid amount
+4. Tap payment Button
+5. Show amount you want to payment, current balance &amp; want another confirmation 
+6. Tap confirm </t>
+  </si>
+  <si>
+    <r>
+      <t>Customer A/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 01686606902 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 5</t>
+    </r>
+  </si>
+  <si>
+    <t>System will show an error message like "Minimum Payment amount 10 tk"</t>
+  </si>
+  <si>
+    <t>Customer/Agent can payment to merchant because of Insufficient balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The user goes to payment page.
+2. Insert valid merchant a/c
+3. Insert amount (greater than user balance)
+4. Tap payment Button
+5. Show amount you want to payment, current balance &amp; want another confirmation 
+6. Tap confirm </t>
+  </si>
+  <si>
+    <r>
+      <t>Customer A/C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">: 01686606902
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Amount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: 10000</t>
+    </r>
+  </si>
+  <si>
+    <t>System will show an error message like "Insufficient balance" &amp; show current user balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Scenario: </t>
+  </si>
+  <si>
+    <t>Payment Module Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Validating customer/agent payment to merchant</t>
+  </si>
+  <si>
+    <t>Rahat Ahmed Shafi</t>
+  </si>
+  <si>
+    <t>Md. Karim Uddin</t>
+  </si>
+  <si>
+    <t>Payment 1</t>
+  </si>
+  <si>
+    <t>Payment 2</t>
+  </si>
+  <si>
+    <t>Payment 3</t>
+  </si>
+  <si>
+    <t>Payment 4</t>
+  </si>
+  <si>
+    <t>Payment 5</t>
+  </si>
+  <si>
+    <t>Payment 6</t>
+  </si>
+  <si>
+    <t>Payment 7</t>
+  </si>
+  <si>
+    <t>Customer A/C:  01686606902
+Amount: 1000</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8C8C8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -41,85 +552,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="31">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="40% - Accent2" xfId="1" builtinId="35"/>
+    <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -385,19 +986,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.08984375" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="29.08984375" customWidth="1"/>
+    <col min="6" max="6" width="22.81640625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="21.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.5">
+      <c r="A1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.5">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="23">
+        <v>45972</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="234.5" customHeight="1">
+      <c r="A5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="24"/>
+    </row>
+    <row r="6" spans="1:10" ht="204" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10" ht="192.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10" ht="174.5" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" ht="168" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" ht="178.5" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" ht="192.5" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>